--- a/Documentação/Planilhas/Layouts/Motivo Reprovacao.xlsx
+++ b/Documentação/Planilhas/Layouts/Motivo Reprovacao.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_motivo_reprovacao" sheetId="273" r:id="rId1"/>
-    <sheet name="ods_campanha" sheetId="274" r:id="rId2"/>
-    <sheet name="ods_msg_operadora" sheetId="275" r:id="rId3"/>
-    <sheet name="ods_motivo_reprovacao" sheetId="276" r:id="rId4"/>
-    <sheet name="aux_ods_campanha_utilizada" sheetId="277" r:id="rId5"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId6"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
+    <sheet name="dim_emissor_cartao" sheetId="278" r:id="rId2"/>
+    <sheet name="dim_msg_operadora" sheetId="279" r:id="rId3"/>
+    <sheet name="fact_motivo_reprovacao" sheetId="280" r:id="rId4"/>
+    <sheet name="ods_motivo_reprovacao" sheetId="276" r:id="rId5"/>
+    <sheet name="ods_msg_operadora" sheetId="275" r:id="rId6"/>
+    <sheet name="stg_motivo_reprovacao" sheetId="273" r:id="rId7"/>
+    <sheet name="aux_ods_campanha_utilizada" sheetId="277" r:id="rId8"/>
+    <sheet name="dim_campanha" sheetId="282" r:id="rId9"/>
+    <sheet name="ods_campanha" sheetId="274" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="126">
   <si>
     <t>Campo</t>
   </si>
@@ -340,6 +344,63 @@
   </si>
   <si>
     <t>com.ods_motivo_reprovacao</t>
+  </si>
+  <si>
+    <t>MIS_DATA_WAREHOUSE</t>
+  </si>
+  <si>
+    <t>[com].[dim_emissor_cartao]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\dw_motivo_reprovacao.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_bin</t>
+  </si>
+  <si>
+    <t>ds_bin_6prim</t>
+  </si>
+  <si>
+    <t>Identifica o emissor do cartão através do seu código interno. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o emissor do cartão através dos 6 primeiros dígitos do cartão utilizado. Ex: 000530, 000532, etc</t>
+  </si>
+  <si>
+    <t>[com].[dim_msg_operadora]</t>
+  </si>
+  <si>
+    <t>Identifica a mensagem da operadora através do seu código interno. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica o motivo da recusa através do seu código. Ex: 51, 54, etc</t>
+  </si>
+  <si>
+    <t>Identifica a mensagem da recusa através da sua descrição. Ex: 51saldo indisp, 54cartao vencido, etc</t>
+  </si>
+  <si>
+    <t>[com].[fact_motivo_reprovacao]</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo da Reprovação da operadora através do seu código interno. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Venda através do seu código. Ex: 3, 4, etc</t>
+  </si>
+  <si>
+    <t>Valor Total do Pedido</t>
+  </si>
+  <si>
+    <t>com.dim_emissor_cartao</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_campanha]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ods_campanha</t>
+  </si>
+  <si>
+    <t>aux_ods_campanha_utilizada</t>
   </si>
 </sst>
 </file>
@@ -900,6 +961,186 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1230,294 +1471,221 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>50</v>
-      </c>
+    <row r="2" spans="2:5">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="20" t="str">
+        <f>dim_emissor_cartao!B9</f>
+        <v>[com].[dim_emissor_cartao]</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f>dim_emissor_cartao!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f>dim_emissor_cartao!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\dw_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="20" t="str">
+        <f>dim_msg_operadora!B9</f>
+        <v>[com].[dim_msg_operadora]</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f>dim_msg_operadora!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f>dim_msg_operadora!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\dw_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="20" t="str">
+        <f>fact_motivo_reprovacao!B9</f>
+        <v>[com].[fact_motivo_reprovacao]</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f>fact_motivo_reprovacao!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>fact_motivo_reprovacao!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\dw_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="20" t="str">
+        <f>ods_motivo_reprovacao!B9</f>
+        <v>[com].[ods_motivo_reprovacao]</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f>ods_motivo_reprovacao!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>ods_motivo_reprovacao!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="20" t="str">
+        <f>ods_msg_operadora!B9</f>
+        <v>[com].[ods_msg_operadora]</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>ods_msg_operadora!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>ods_msg_operadora!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="20" t="str">
+        <f>stg_motivo_reprovacao!B9</f>
+        <v>[com].[stg_motivo_reprovacao]</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>stg_motivo_reprovacao!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>stg_motivo_reprovacao!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\stg_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="20" t="str">
+        <f>aux_ods_campanha_utilizada!B9</f>
+        <v>[dbo].[aux_ods_campanha_utilizada]</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f>aux_ods_campanha_utilizada!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>aux_ods_campanha_utilizada!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="20" t="str">
+        <f>dim_campanha!B9</f>
+        <v>[dbo].[dim_campanha]</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>dim_campanha!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>dim_campanha!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\dw_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="20" t="str">
+        <f>ods_campanha!B9</f>
+        <v>[dbo].[ods_campanha]</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>ods_campanha!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>ods_campanha!B10</f>
+        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="11"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <sortState ref="B3:E11">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B8" location="stg_motivo_reprovacao!A1" display="stg_motivo_reprovacao!A1"/>
+    <hyperlink ref="B11" location="ods_campanha!A1" display="ods_campanha!A1"/>
+    <hyperlink ref="B7" location="ods_msg_operadora!A1" display="ods_msg_operadora!A1"/>
+    <hyperlink ref="B6" location="ods_motivo_reprovacao!A1" display="ods_motivo_reprovacao!A1"/>
+    <hyperlink ref="B9" location="aux_ods_campanha_utilizada!A1" display="aux_ods_campanha_utilizada!A1"/>
+    <hyperlink ref="B3" location="dim_emissor_cartao!A1" display="dim_emissor_cartao!A1"/>
+    <hyperlink ref="B4" location="dim_msg_operadora!A1" display="dim_msg_operadora!A1"/>
+    <hyperlink ref="B5" location="fact_motivo_reprovacao!A1" display="fact_motivo_reprovacao!A1"/>
+    <hyperlink ref="B10" location="dim_campanha!A1" display="dim_campanha!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1627,127 +1795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1792,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1800,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1808,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1828,16 +1876,274 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -1848,10 +2154,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -1862,10 +2168,10 @@
         <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
@@ -1873,24 +2179,20 @@
         <v>83</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="22" t="s">
@@ -1899,8 +2201,6 @@
       <c r="B19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="22" t="s">
@@ -1912,10 +2212,10 @@
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
@@ -1923,7 +2223,7 @@
         <v>72</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
@@ -1931,7 +2231,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
@@ -1944,34 +2244,18 @@
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>101</v>
+      <c r="B26" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2026,6 +2310,648 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2101,163 +3027,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="20" t="str">
-        <f>stg_motivo_reprovacao!B9</f>
-        <v>[com].[stg_motivo_reprovacao]</v>
-      </c>
-      <c r="C3" s="17" t="str">
-        <f>stg_motivo_reprovacao!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D3" s="18" t="str">
-        <f>stg_motivo_reprovacao!B10</f>
-        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\stg_motivo_reprovacao.dtsx</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="20" t="str">
-        <f>ods_campanha!B9</f>
-        <v>[dbo].[ods_campanha]</v>
-      </c>
-      <c r="C4" s="17" t="str">
-        <f>ods_campanha!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D4" s="18" t="str">
-        <f>ods_campanha!B10</f>
-        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="20" t="str">
-        <f>ods_msg_operadora!B9</f>
-        <v>[com].[ods_msg_operadora]</v>
-      </c>
-      <c r="C5" s="17" t="str">
-        <f>ods_msg_operadora!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D5" s="18" t="str">
-        <f>ods_msg_operadora!B10</f>
-        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="20" t="str">
-        <f>ods_motivo_reprovacao!B9</f>
-        <v>[com].[ods_motivo_reprovacao]</v>
-      </c>
-      <c r="C6" s="17" t="str">
-        <f>ods_motivo_reprovacao!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D6" s="18" t="str">
-        <f>ods_motivo_reprovacao!B10</f>
-        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="20" t="str">
-        <f>aux_ods_campanha_utilizada!B9</f>
-        <v>[dbo].[aux_ods_campanha_utilizada]</v>
-      </c>
-      <c r="C7" s="17" t="str">
-        <f>aux_ods_campanha_utilizada!B8</f>
-        <v>MIS_DW</v>
-      </c>
-      <c r="D7" s="18" t="str">
-        <f>aux_ods_campanha_utilizada!B10</f>
-        <v>N:\Migracao\Motivos Reprovação_Prod\Motivos Reprovação\ods_motivo_reprovacao.dtsx</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="4:5" ht="30" customHeight="1">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E36">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B3" location="stg_motivo_reprovacao!A1" display="stg_motivo_reprovacao!A1"/>
-    <hyperlink ref="B4" location="ods_campanha!A1" display="ods_campanha!A1"/>
-    <hyperlink ref="B5" location="ods_msg_operadora!A1" display="ods_msg_operadora!A1"/>
-    <hyperlink ref="B6" location="ods_motivo_reprovacao!A1" display="ods_motivo_reprovacao!A1"/>
-    <hyperlink ref="B7" location="aux_ods_campanha_utilizada!A1" display="aux_ods_campanha_utilizada!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>